--- a/Example Excel/1111退回任务.xlsx
+++ b/Example Excel/1111退回任务.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suoweihu/Documents/GitHub/Excel-Online-App/Example Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76BAD895-E964-7547-BB87-75DC4FEDF654}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48048EDF-8A15-6E4B-918E-986F1FE36631}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7460" yWindow="4540" windowWidth="23260" windowHeight="12580" xr2:uid="{6FA5D0C7-F6B8-4FA4-99A2-EAC4DFBFED28}"/>
+    <workbookView xWindow="2260" yWindow="880" windowWidth="27040" windowHeight="15460" xr2:uid="{6FA5D0C7-F6B8-4FA4-99A2-EAC4DFBFED28}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="50">
   <si>
     <t>任务号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -195,12 +192,18 @@
   </si>
   <si>
     <t>COMPLTE</t>
+  </si>
+  <si>
+    <t>列2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy/m/d"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -240,7 +243,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -250,13 +253,16 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="19" formatCode="d/m/yy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="yyyy/m/d"/>
@@ -277,48 +283,9 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="CPS_TASKDATA_INFO"/>
-      <sheetName val="CPS_TASKSUBMIT_INFO"/>
-      <sheetName val="T_COCO_BUSSNISMSG_INFO"/>
-      <sheetName val="TUIHUI"/>
-      <sheetName val="WORKITEM"/>
-      <sheetName val="切片生成情况"/>
-      <sheetName val="节点任务生成情况"/>
-      <sheetName val="中心人员工作量"/>
-      <sheetName val="退回业务分析"/>
-      <sheetName val="交易量"/>
-      <sheetName val="碎片录入情况"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="1">
-          <cell r="D1" t="str">
-            <v>TASK_SENUM</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C007AC99-E015-48F7-90CF-3F670E63638A}" name="表6" displayName="表6" ref="B1:L15" totalsRowShown="0">
-  <tableColumns count="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C007AC99-E015-48F7-90CF-3F670E63638A}" name="表6" displayName="表6" ref="B1:M15" totalsRowShown="0">
+  <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{EA687122-EC0D-444F-8D80-93F1778B6F49}" name="任务号"/>
     <tableColumn id="2" xr3:uid="{27F2D58B-7E7B-4D42-BC90-E3CCBF66FF62}" name="交易码" dataDxfId="2"/>
     <tableColumn id="3" xr3:uid="{1272AFA0-BEA1-4C2D-8942-C262663935CB}" name="交易名称"/>
@@ -326,14 +293,13 @@
     <tableColumn id="6" xr3:uid="{08263421-48FA-4654-914A-C1A915E26B4F}" name="交易用户"/>
     <tableColumn id="7" xr3:uid="{59A15B1F-509E-4D7F-9AAC-29EEBA7600E7}" name="退回用户"/>
     <tableColumn id="8" xr3:uid="{6642E4F5-E78E-4B01-AC70-3BF5BFD57C1E}" name="列1"/>
-    <tableColumn id="9" xr3:uid="{1F770EA6-B521-43EA-8A90-82460405412C}" name="退回节点"/>
-    <tableColumn id="10" xr3:uid="{A42CBD8C-0956-45A0-913A-835672C97900}" name="退回节点名称"/>
-    <tableColumn id="11" xr3:uid="{56AFB3DE-CC42-41C4-900D-1795FB218E2F}" name="日期" dataDxfId="1">
-      <calculatedColumnFormula>IFERROR(DATE(MID(B2,FIND("2019",B2),4),MID(B2,FIND("2019",B2)+4,2),MID(B2,FIND("2019",B2)+6,2)),K1)</calculatedColumnFormula>
+    <tableColumn id="9" xr3:uid="{1F770EA6-B521-43EA-8A90-82460405412C}" name="列2"/>
+    <tableColumn id="10" xr3:uid="{A42CBD8C-0956-45A0-913A-835672C97900}" name="退回节点"/>
+    <tableColumn id="11" xr3:uid="{56AFB3DE-CC42-41C4-900D-1795FB218E2F}" name="退回节点名称" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{106568A0-9BB5-4F25-B330-4D7E438BDB0A}" name="日期" dataDxfId="0">
+      <calculatedColumnFormula>IFERROR(DATE(MID(B2,FIND("2019",B2),4),MID(B2,FIND("2019",B2)+4,2),MID(B2,FIND("2019",B2)+6,2)),L1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{106568A0-9BB5-4F25-B330-4D7E438BDB0A}" name="归属分行" dataDxfId="0">
-      <calculatedColumnFormula>VLOOKUP(表6[[#This Row],[任务号]],[1]T_COCO_BUSSNISMSG_INFO!D:L,9,0)</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="5" xr3:uid="{4306FFB7-41A1-4044-A3D6-9483A34A7317}" name="归属分行"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -636,10 +602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76B539E9-52E3-46E6-BCBD-41F8F2E1E5CC}">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B18:B19"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -651,13 +617,14 @@
     <col min="5" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.33203125" customWidth="1"/>
-    <col min="9" max="9" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" customWidth="1"/>
+    <col min="10" max="10" width="12.5" customWidth="1"/>
+    <col min="11" max="11" width="17.33203125" customWidth="1"/>
     <col min="12" max="12" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>47</v>
       </c>
@@ -683,19 +650,22 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>733101</v>
       </c>
@@ -720,21 +690,21 @@
       <c r="H2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>16</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="2">
-        <f>IFERROR(DATE(MID(B2,FIND("2019",B2),4),MID(B2,FIND("2019",B2)+4,2),MID(B2,FIND("2019",B2)+6,2)),K1)</f>
-        <v>43612</v>
-      </c>
-      <c r="L2">
-        <v>733990</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L2" s="2">
+        <f>IFERROR(DATE(MID(B2,FIND("2019",B2),4),MID(B2,FIND("2019",B2)+4,2),MID(B2,FIND("2019",B2)+6,2)),L1)</f>
+        <v>43612</v>
+      </c>
+      <c r="M2">
+        <v>733990</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>733101</v>
       </c>
@@ -756,21 +726,21 @@
       <c r="G3" t="s">
         <v>15</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>16</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="2">
-        <f t="shared" ref="K3:K15" si="0">IFERROR(DATE(MID(B3,FIND("2019",B3),4),MID(B3,FIND("2019",B3)+4,2),MID(B3,FIND("2019",B3)+6,2)),K2)</f>
-        <v>43612</v>
-      </c>
-      <c r="L3">
-        <v>733990</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L3" s="2">
+        <f>IFERROR(DATE(MID(B3,FIND("2019",B3),4),MID(B3,FIND("2019",B3)+4,2),MID(B3,FIND("2019",B3)+6,2)),L2)</f>
+        <v>43612</v>
+      </c>
+      <c r="M3">
+        <v>733990</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>733101</v>
       </c>
@@ -792,21 +762,21 @@
       <c r="G4" t="s">
         <v>21</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>22</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="2">
-        <f t="shared" si="0"/>
-        <v>43612</v>
-      </c>
-      <c r="L4">
-        <v>733990</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L4" s="2">
+        <f>IFERROR(DATE(MID(B4,FIND("2019",B4),4),MID(B4,FIND("2019",B4)+4,2),MID(B4,FIND("2019",B4)+6,2)),L3)</f>
+        <v>43612</v>
+      </c>
+      <c r="M4">
+        <v>733990</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>733101</v>
       </c>
@@ -828,21 +798,21 @@
       <c r="G5" t="s">
         <v>25</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>26</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="2">
-        <f t="shared" si="0"/>
-        <v>43612</v>
-      </c>
-      <c r="L5">
-        <v>733990</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L5" s="2">
+        <f>IFERROR(DATE(MID(B5,FIND("2019",B5),4),MID(B5,FIND("2019",B5)+4,2),MID(B5,FIND("2019",B5)+6,2)),L4)</f>
+        <v>43612</v>
+      </c>
+      <c r="M5">
+        <v>733990</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>733121</v>
       </c>
@@ -864,21 +834,21 @@
       <c r="G6" t="s">
         <v>15</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>16</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="2">
-        <f t="shared" si="0"/>
-        <v>43612</v>
-      </c>
-      <c r="L6">
-        <v>733990</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L6" s="2">
+        <f>IFERROR(DATE(MID(B6,FIND("2019",B6),4),MID(B6,FIND("2019",B6)+4,2),MID(B6,FIND("2019",B6)+6,2)),L5)</f>
+        <v>43612</v>
+      </c>
+      <c r="M6">
+        <v>733990</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>733121</v>
       </c>
@@ -900,21 +870,21 @@
       <c r="G7" t="s">
         <v>15</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>16</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="2">
-        <f t="shared" si="0"/>
-        <v>43612</v>
-      </c>
-      <c r="L7">
-        <v>733990</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L7" s="2">
+        <f>IFERROR(DATE(MID(B7,FIND("2019",B7),4),MID(B7,FIND("2019",B7)+4,2),MID(B7,FIND("2019",B7)+6,2)),L6)</f>
+        <v>43612</v>
+      </c>
+      <c r="M7">
+        <v>733990</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>733121</v>
       </c>
@@ -936,21 +906,21 @@
       <c r="G8" t="s">
         <v>15</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>16</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="2">
-        <f t="shared" si="0"/>
-        <v>43612</v>
-      </c>
-      <c r="L8">
-        <v>733990</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L8" s="2">
+        <f>IFERROR(DATE(MID(B8,FIND("2019",B8),4),MID(B8,FIND("2019",B8)+4,2),MID(B8,FIND("2019",B8)+6,2)),L7)</f>
+        <v>43612</v>
+      </c>
+      <c r="M8">
+        <v>733990</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>733121</v>
       </c>
@@ -972,21 +942,21 @@
       <c r="G9" t="s">
         <v>15</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>16</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="2">
-        <f t="shared" si="0"/>
-        <v>43612</v>
-      </c>
-      <c r="L9">
-        <v>733990</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="2">
+        <f>IFERROR(DATE(MID(B9,FIND("2019",B9),4),MID(B9,FIND("2019",B9)+4,2),MID(B9,FIND("2019",B9)+6,2)),L8)</f>
+        <v>43612</v>
+      </c>
+      <c r="M9">
+        <v>733990</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>733121</v>
       </c>
@@ -1008,21 +978,21 @@
       <c r="G10" t="s">
         <v>21</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>22</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K10" s="2">
-        <f t="shared" si="0"/>
-        <v>43612</v>
-      </c>
-      <c r="L10">
-        <v>733990</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="2">
+        <f>IFERROR(DATE(MID(B10,FIND("2019",B10),4),MID(B10,FIND("2019",B10)+4,2),MID(B10,FIND("2019",B10)+6,2)),L9)</f>
+        <v>43612</v>
+      </c>
+      <c r="M10">
+        <v>733990</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>733131</v>
       </c>
@@ -1044,21 +1014,21 @@
       <c r="G11" t="s">
         <v>21</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>22</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K11" s="2">
-        <f t="shared" si="0"/>
-        <v>43612</v>
-      </c>
-      <c r="L11">
-        <v>733990</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L11" s="2">
+        <f>IFERROR(DATE(MID(B11,FIND("2019",B11),4),MID(B11,FIND("2019",B11)+4,2),MID(B11,FIND("2019",B11)+6,2)),L10)</f>
+        <v>43612</v>
+      </c>
+      <c r="M11">
+        <v>733990</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>733131</v>
       </c>
@@ -1080,21 +1050,21 @@
       <c r="G12" t="s">
         <v>21</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>22</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K12" s="2">
-        <f t="shared" si="0"/>
-        <v>43612</v>
-      </c>
-      <c r="L12">
-        <v>733990</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="2">
+        <f>IFERROR(DATE(MID(B12,FIND("2019",B12),4),MID(B12,FIND("2019",B12)+4,2),MID(B12,FIND("2019",B12)+6,2)),L11)</f>
+        <v>43612</v>
+      </c>
+      <c r="M12">
+        <v>733990</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>733161</v>
       </c>
@@ -1116,21 +1086,21 @@
       <c r="G13" t="s">
         <v>21</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>22</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K13" s="2">
-        <f t="shared" si="0"/>
-        <v>43612</v>
-      </c>
-      <c r="L13">
-        <v>733990</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="2">
+        <f>IFERROR(DATE(MID(B13,FIND("2019",B13),4),MID(B13,FIND("2019",B13)+4,2),MID(B13,FIND("2019",B13)+6,2)),L12)</f>
+        <v>43612</v>
+      </c>
+      <c r="M13">
+        <v>733990</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>733171</v>
       </c>
@@ -1152,21 +1122,21 @@
       <c r="G14" t="s">
         <v>21</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>22</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K14" s="2">
-        <f t="shared" si="0"/>
-        <v>43612</v>
-      </c>
-      <c r="L14">
-        <v>733990</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="2">
+        <f>IFERROR(DATE(MID(B14,FIND("2019",B14),4),MID(B14,FIND("2019",B14)+4,2),MID(B14,FIND("2019",B14)+6,2)),L13)</f>
+        <v>43612</v>
+      </c>
+      <c r="M14">
+        <v>733990</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>733171</v>
       </c>
@@ -1189,16 +1159,19 @@
         <v>15</v>
       </c>
       <c r="I15" t="s">
+        <v>48</v>
+      </c>
+      <c r="J15" t="s">
         <v>16</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K15" s="2">
-        <f t="shared" si="0"/>
-        <v>43612</v>
-      </c>
-      <c r="L15">
+      <c r="L15" s="2">
+        <f>IFERROR(DATE(MID(B15,FIND("2019",B15),4),MID(B15,FIND("2019",B15)+4,2),MID(B15,FIND("2019",B15)+6,2)),L14)</f>
+        <v>43612</v>
+      </c>
+      <c r="M15">
         <v>733990</v>
       </c>
     </row>
